--- a/Variables_Iniciales_DATA_Municipio.xlsx
+++ b/Variables_Iniciales_DATA_Municipio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033B91A-07E9-4836-B558-215A18340012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEDF9C6-15C1-40A8-9AFE-E5F727A7FBDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3C2DFE00-B779-41C0-84E8-D25B00A4B1AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C2DFE00-B779-41C0-84E8-D25B00A4B1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="182">
   <si>
     <t>DATA MUNI</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Hogares con jefa Mujer</t>
   </si>
   <si>
-    <t>Índice de prioridad Social</t>
-  </si>
-  <si>
     <t>Porcentaje de población comunal viviendo bajo la línea de pobreza</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t xml:space="preserve">Medio de eliminación de excretas </t>
   </si>
   <si>
-    <t xml:space="preserve">índice de accesibilidad tecnológica </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TV a color; teléfono celular; teléfono fijo; acceso a Internet y computador</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
   </si>
   <si>
     <t>Ingresos por fondo común municipal</t>
-  </si>
-  <si>
-    <t>PLANIFICACIÓN TERRITORIAL</t>
   </si>
   <si>
     <t xml:space="preserve">Estado de los planes reguladores comunales </t>
@@ -663,6 +654,46 @@
   <si>
     <t>Es un instrumento constituido por un conjunto de normas sobre adecuadas condiciones de higiene y seguridad en los edificios y espacios urbanos, y de comodidad en la relación funcional entre las zonas habitacionales, de trabajo, equipamiento y esparcimiento.
 Sus disposiciones se refieren al uso del suelo o zonificación, localización del equipamiento comunitario, estacionamiento, jerarquía de la estructura vial, fijación de límites urbanos, densidades y determinación de prioridades en la urbanización de terrenos para la expansión de la ciudad, en función de la factibilidad de ampliar o dotar de redes sanitarias y energéticas, y demás aspectos urbanísticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de accesibilidad tecnológica </t>
+  </si>
+  <si>
+    <t>Ciudadanos</t>
+  </si>
+  <si>
+    <t>Planificación Territorial</t>
+  </si>
+  <si>
+    <t>Prioridad Social</t>
+  </si>
+  <si>
+    <t>Ingresos monetarios</t>
+  </si>
+  <si>
+    <t>Ingresos Monetarios</t>
+  </si>
+  <si>
+    <t>Subsidios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ingreso autónomo del hogar</t>
+  </si>
+  <si>
+    <t>Se define como todos los pagos que recibe el hogar como resultado de la posesión de factores productivos. Incluye: sueldos y salarios, ganancias del trabajo independiente, la autoprovisión de bienes producidos por el hogar, rentas, intereses, pensiones y jubilaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ingreso monetario del hogar</t>
+  </si>
+  <si>
+    <t>Se define como la suma del ingreso autónomo y las transferencias (subsidios) monetarias que recibe el hogar del Estado, tales como: 
+Pensión Asistencial de Ancianidad (PASIS), Subsidio Único Familiar (SUF), Subsidio al Agua Potable (SAP), asignaciones familiares y los subsidios de cesantía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracterización de la vivienda </t>
+  </si>
+  <si>
+    <t>Material paredes pisos, techos, etc</t>
   </si>
 </sst>
 </file>
@@ -801,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -884,6 +915,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2D50C-8089-4863-A45A-EF634B6F24C3}">
-  <dimension ref="A2:N77"/>
+  <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1312,7 @@
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9"/>
@@ -1282,28 +1322,25 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
@@ -1312,13 +1349,13 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
@@ -1327,13 +1364,13 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>9</v>
@@ -1342,13 +1379,13 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
@@ -1357,11 +1394,13 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -1372,78 +1411,76 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
-        <v>23</v>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
@@ -1452,11 +1489,13 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
@@ -1467,34 +1506,34 @@
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
@@ -1503,11 +1542,11 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
@@ -1518,77 +1557,78 @@
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="E27" s="16"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
+      <c r="B28" s="1"/>
+      <c r="C28" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="3" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
+      <c r="B29" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>9</v>
@@ -1600,43 +1640,47 @@
     <row r="30" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="9"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="16"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="9"/>
@@ -1644,288 +1688,247 @@
     <row r="35" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="C37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="C42" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C52" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D53" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="C54" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="D54" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
       <c r="C55" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="18"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1936,14 +1939,14 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
       <c r="C57" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -1953,12 +1956,13 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="C58" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -1968,13 +1972,14 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="C59" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1982,30 +1987,30 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>83</v>
+      <c r="B60" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>83</v>
+      <c r="C61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
@@ -2014,11 +2019,14 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2028,9 +2036,12 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2040,9 +2051,15 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2050,11 +2067,15 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2062,7 +2083,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2086,7 +2107,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
@@ -2134,7 +2155,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2196,6 +2217,54 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,9 +2273,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F966F0CD-126D-4789-978D-98D53F430AED}">
-  <dimension ref="B3:E47"/>
+  <dimension ref="B3:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2222,43 +2291,43 @@
   <sheetData>
     <row r="3" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="84" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="36" x14ac:dyDescent="0.3">
@@ -2266,318 +2335,334 @@
         <v>16</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="26" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="36" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="48" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="22" t="s">
+    </row>
+    <row r="34" spans="2:3" ht="108" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
+      <c r="C34" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="27" t="s">
+    </row>
+    <row r="35" spans="2:3" ht="96" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+      <c r="C35" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="27" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+      <c r="C36" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="27" t="s">
+    </row>
+    <row r="37" spans="2:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="48" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="B39" s="28" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
+      <c r="C39" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="27" t="s">
+    </row>
+    <row r="40" spans="2:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B37" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="29" t="s">
+    </row>
+    <row r="41" spans="2:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
+      <c r="C41" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="27" t="s">
+    </row>
+    <row r="42" spans="2:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+      <c r="C42" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="27" t="s">
+    </row>
+    <row r="43" spans="2:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="C43" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="27" t="s">
+    </row>
+    <row r="44" spans="2:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="B41" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="22" t="s">
+    </row>
+    <row r="45" spans="2:3" ht="48" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24" t="s">
+      <c r="C45" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="22" t="s">
+    </row>
+    <row r="47" spans="2:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="C47" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="27" t="s">
+    </row>
+    <row r="48" spans="2:3" ht="106" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="C48" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="19" t="s">
+    </row>
+    <row r="49" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" ht="106" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
+      <c r="C49" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="31"/>
+      <c r="E49" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Variables_Iniciales_DATA_Municipio.xlsx
+++ b/Variables_Iniciales_DATA_Municipio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEDF9C6-15C1-40A8-9AFE-E5F727A7FBDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E5931-5785-4A3E-B9A4-F6B10156E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C2DFE00-B779-41C0-84E8-D25B00A4B1AD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>DATA MUNI</t>
   </si>
@@ -832,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -923,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2D50C-8089-4863-A45A-EF634B6F24C3}">
-  <dimension ref="A2:N81"/>
+  <dimension ref="A2:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
         <v>45</v>
@@ -1685,7 +1688,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
         <v>46</v>
@@ -1693,7 +1696,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
         <v>47</v>
@@ -1701,7 +1704,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>172</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
         <v>54</v>
@@ -1725,7 +1728,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>55</v>
@@ -1736,7 +1739,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="9" t="s">
         <v>56</v>
       </c>
@@ -1746,7 +1749,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>58</v>
       </c>
@@ -1756,7 +1759,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>173</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="9" t="s">
         <v>175</v>
       </c>
@@ -1779,7 +1782,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>48</v>
       </c>
@@ -1792,61 +1795,57 @@
       <c r="E44" s="16"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="35"/>
       <c r="C45" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="E45" s="16"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="9" t="s">
+    <row r="46" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+    <row r="48" spans="2:6" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E49" s="16"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1854,14 +1853,13 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>169</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1870,8 +1868,14 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
-        <v>63</v>
+      <c r="B51" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1880,20 +1884,22 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>66</v>
@@ -1901,31 +1907,24 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C55" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C56" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>66</v>
@@ -1940,7 +1939,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C57" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>66</v>
@@ -1954,9 +1953,8 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="C58" s="9" t="s">
-        <v>72</v>
+      <c r="C58" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>66</v>
@@ -1972,14 +1970,14 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="C59" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -1987,18 +1985,15 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="C60" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2006,13 +2001,17 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
+      <c r="B61" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="C61" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2022,7 +2021,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="C62" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>66</v>
@@ -2037,7 +2036,7 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="C63" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>66</v>
@@ -2051,14 +2050,11 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>80</v>
+      <c r="C64" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
@@ -2067,11 +2063,13 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="34" t="s">
+        <v>171</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>80</v>
@@ -2083,11 +2081,15 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2095,7 +2097,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
@@ -2155,7 +2157,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2167,7 +2169,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -2263,11 +2265,24 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Variables_Iniciales_DATA_Municipio.xlsx
+++ b/Variables_Iniciales_DATA_Municipio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E5931-5785-4A3E-B9A4-F6B10156E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A2B91-8D47-49BE-A528-CACCF1CEAA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C2DFE00-B779-41C0-84E8-D25B00A4B1AD}"/>
   </bookViews>
@@ -1244,7 +1244,7 @@
   <dimension ref="A2:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
